--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterDays_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="78">
   <si>
     <t>ModuleName</t>
   </si>
@@ -237,28 +237,25 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>04-05-2024</t>
-  </si>
-  <si>
-    <t>04-05-2024 05:23:12 PM</t>
-  </si>
-  <si>
-    <t>ET162</t>
-  </si>
-  <si>
-    <t>04-05-2024 05:29:49 PM</t>
-  </si>
-  <si>
     <t>ET163</t>
   </si>
   <si>
     <t>ET164</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_MTAfterDays</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>18-07-2024</t>
+  </si>
+  <si>
+    <t>21-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2647</t>
+  </si>
+  <si>
+    <t>ET_MTAfterDays</t>
   </si>
 </sst>
 </file>
@@ -603,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -771,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -780,7 +777,7 @@
         <v>33</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>70</v>
@@ -819,7 +816,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -831,10 +828,10 @@
         <v>50</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +848,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,7 +1006,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1057,7 +1054,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1071,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1085,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1233,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1284,7 +1281,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1298,7 +1295,7 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1314,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1462,7 +1459,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1510,7 +1507,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1524,7 +1521,7 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterDays_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="78">
   <si>
     <t>ModuleName</t>
   </si>
@@ -262,6 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,33 +607,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.1796875" style="1"/>
-    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="16" style="1" width="9.1796875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -830,7 +831,7 @@
       <c r="AG2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>73</v>
       </c>
     </row>
@@ -853,24 +854,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1005,7 +1006,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>74</v>
       </c>
       <c r="L2" s="1">
@@ -1014,10 +1015,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1067,7 +1068,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -1090,14 +1091,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1232,7 +1233,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>74</v>
       </c>
       <c r="L2" s="1">
@@ -1241,10 +1242,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1294,7 +1295,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>72</v>
       </c>
     </row>
@@ -1317,13 +1318,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1458,7 +1459,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>74</v>
       </c>
       <c r="L2" s="1">
@@ -1467,10 +1468,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1520,7 +1521,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>72</v>
       </c>
     </row>
